--- a/tugas/pta_graph.xlsx
+++ b/tugas/pta_graph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B606"/>
+  <dimension ref="A1:B598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
@@ -1185,638 +1185,638 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/114</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100014</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100016</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100063</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_contact/</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,1387 +1828,1387 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100040</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100005</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130641100122</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130641100101</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130641100009</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29/84</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130641100014</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130641100120</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6/3</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100018</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100016</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110711100023</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6/2</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6/195</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100004</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,679 +3220,679 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100002</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100020</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100007</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100006</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/sosialisasi pta.docx</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,595 +3904,595 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100018</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100009</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100476</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080411100115</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10/3</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100468</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070411100070</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/578</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10/172</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100031</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100062</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/3</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4504,1483 +4504,1483 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100480</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/2</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100118</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6/3</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6/118</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100020</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100003</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100013</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6/2</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100031</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100049</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100007</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100010</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-10.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100005</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-1.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-8.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-5.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100014</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100012</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/3</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100017</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-4.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-3.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-9.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-12.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-15.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-2.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/2</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -5992,1716 +5992,1620 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-13.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-11.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/14</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-14.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100002</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-0.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-7.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-6.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080521100066</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100028</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100035</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080521200002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/96</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12/136</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070121100030</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100042</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/2</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070121100033</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100018</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/3</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100014</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080521100057</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100085</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7/462</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100131</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100118</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100056</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100090</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>

--- a/tugas/pta_graph.xlsx
+++ b/tugas/pta_graph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B598"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
@@ -1185,1190 +1185,1190 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110251100001</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25/2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/120251100009</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25/3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110251100002</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/114</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100014</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100016</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25/19</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100063</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/120251100003</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100040</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/120251100004</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100005</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100005</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100016</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100014</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,1303 +2380,1303 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100040</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/3</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/114</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100063</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/2</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-4.jpg</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100018</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-12.jpg</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100016</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-10.jpg</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-7.jpg</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-8.jpg</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110711100023</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-9.jpg</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-5.jpg</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-6.jpg</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6/195</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100004</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-0.jpg</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110721100002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-11.jpg</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9/143</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9/3</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,259 +3688,259 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100055</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9/2</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100005</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/sosialisasi pta.docx</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100046</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3952,451 +3952,451 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100087</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100009</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100019</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/578</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100031</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100062</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4408,1255 +4408,1255 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100118</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6/118</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100020</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35/2</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100001</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100020</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100013</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100031</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100049</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100007</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100018</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100007</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100005</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100006</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26/15</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100003</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100006</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100014</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -5668,1123 +5668,1123 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100012</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100017</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26/3</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26/2</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100008</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100002</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100002</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100023</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100028</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100035</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/96</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100042</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100018</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -6796,816 +6796,840 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100014</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>

--- a/tugas/pta_graph.xlsx
+++ b/tugas/pta_graph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
@@ -1185,542 +1185,542 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110251100001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25/2</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-8.jpg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/120251100009</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-12.jpg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/110251100002</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-9.jpg</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-10.jpg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-0.jpg</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-7.jpg</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-5.jpg</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,1615 +1732,1615 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-6.jpg</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/120251100003</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/120251100004</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-11.jpg</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-4.jpg</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100005</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-8.jpg</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-14.jpg</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100016</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100014</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-13.jpg</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-4.jpg</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100040</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-6.jpg</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-15.jpg</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-0.jpg</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/114</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080331100063</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-5.jpg</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-9.jpg</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-11.jpg</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-4.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-12.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-12.jpg</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-10.jpg</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-7.jpg</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-10.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100034</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-7.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100002</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-8.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-9.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19/2</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-5.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100032</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-6.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-2.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100001</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19/3</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100036</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-0.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-11.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,271 +3352,271 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-3.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-1.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9/143</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19/27</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/index/3</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,763 +3628,763 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100003</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/index/2</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100055</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100005</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100046</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/160211100116</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100087</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/170111100053</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/index/4893</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080421100019</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4396,271 +4396,271 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100014</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -4672,235 +4672,235 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/3</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100028</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100018</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/96</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/2</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100042</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -4912,451 +4912,451 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100035</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090111100077</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100020</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070111200007</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1/3</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100007</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070111100060</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100018</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1/2</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -5368,1579 +5368,1579 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080111100002</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160351100006</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080111100012</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100003</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100006</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1/297</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100003</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100010</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26/3</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100008</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100001</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/130271100023</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/578</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100062</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100118</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/2</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/3</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100031</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -6952,684 +6952,1008 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100009</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080411100115</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4/2</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100480</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100468</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4/460</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100476</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070411100070</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>

--- a/tugas/pta_graph.xlsx
+++ b/tugas/pta_graph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B627"/>
+  <dimension ref="A1:B626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100044</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100211200002</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7/207</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
@@ -1185,1202 +1185,1202 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-8.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-12.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-1.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14/3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100541100026</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100541100078</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-9.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14/2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-10.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090541100014</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-0.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-7.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090541100020</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-5.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-6.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-3.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14/104</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-2.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090541100015</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-11.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100050/080211100050.pdf-4.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100050</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-8.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-14.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-2.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-3.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100014</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100002</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-1.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/14</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100017</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100012</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-13.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-4.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/2</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,2791 +2392,2791 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-6.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-15.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-0.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22/3</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-5.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-9.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/130261100005</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-11.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-12.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/3</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-10.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/uploads/journals/080211100070/080211100070.pdf-7.jpg</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/578</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100034</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100062</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100032</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/100471100036</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100031</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100118</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/2</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100009</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21/3</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/index/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100241100002</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21/31</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100003</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/index/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100241100003</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100241100004</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100241100007</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21/2</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/160211100116</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/100241100013</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170111100053</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/index/4893</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090111100077</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1/2</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1/3</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070111200007</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080111100002</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1/284</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070111100060</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100014</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080111100012</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100028</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100018</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/96</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100042</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100035</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4/116</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080311100030</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/090111100077</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070111200007</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080311100004</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -5200,1963 +5200,1963 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070111100060</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080311100024</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080311100005</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080311100016</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080111100002</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080111100012</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4/2</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4/3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2/2</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1/297</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100003</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100014</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100010</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2/436</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100018</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/170361100001</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100042</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/070341100028</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2/3</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/080341100035</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080211100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/578</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100085</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100090</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100062</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7/462</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100118</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100056</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7/2</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080231100031</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100118</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/110611100131</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7/3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -7168,792 +7168,780 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080221100009</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-12.jpg</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/080411100115</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-7.jpg</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-8.jpg</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-5.jpg</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-0.jpg</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/3</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/2</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4/2</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-11.jpg</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_template/</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-9.jpg</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/1</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100480</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/36</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/26</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
           <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/2</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/17</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/99</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/39</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/21</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/37</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_template/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/1</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/35</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/5</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/99</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/30</t>
+          <t>https://pta.trunojoyo.ac.id/</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/12</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/7</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/14</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/7</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/8</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/25</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/6</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_contact/</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/24</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/18</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/3</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/31</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-10.jpg</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-4.jpg</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4/3</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/20</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/13</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/33</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/4</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/16</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/11</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100468</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/9</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4/460</t>
+          <t>https://pta.trunojoyo.ac.id/uploads/journals/090211200001/090211200001.pdf-6.jpg</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/32</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/10</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/6</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/15</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/38</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/5</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/22</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/41</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/040411100476</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/19</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/welcome/detail/070411100070</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byfac/100</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/27</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/29</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
+          <t>https://pta.trunojoyo.ac.id/welcome/detail/090211200001</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/28</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byfac/4</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>https://pta.trunojoyo.ac.id/c_search/byprod/40</t>
+          <t>https://pta.trunojoyo.ac.id/c_search/byprod/23</t>
         </is>
       </c>
     </row>
